--- a/1_excel-sheet.xlsx
+++ b/1_excel-sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhruvil\1_Project\HTML\Game 51-100\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhruvil\1_Project\HTML\dhruvil_hspl_games\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -406,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +475,9 @@
       <c r="C5">
         <v>0</v>
       </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -485,6 +489,9 @@
       <c r="C6">
         <v>0</v>
       </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -496,6 +503,9 @@
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -507,6 +517,9 @@
       <c r="C8">
         <v>0</v>
       </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -518,6 +531,9 @@
       <c r="C9">
         <v>0</v>
       </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -529,6 +545,9 @@
       <c r="C10">
         <v>0</v>
       </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -551,6 +570,9 @@
       <c r="C12">
         <v>0</v>
       </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -573,6 +595,9 @@
       <c r="C14">
         <v>0</v>
       </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -584,6 +609,9 @@
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -595,8 +623,11 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>66</v>
       </c>
@@ -606,8 +637,11 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>67</v>
       </c>
@@ -617,8 +651,11 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>68</v>
       </c>
@@ -629,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>69</v>
       </c>
@@ -639,8 +676,11 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>70</v>
       </c>
@@ -651,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>71</v>
       </c>
@@ -662,7 +702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>72</v>
       </c>
@@ -673,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>73</v>
       </c>
@@ -683,8 +723,11 @@
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>74</v>
       </c>
@@ -694,8 +737,11 @@
       <c r="C25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>75</v>
       </c>
@@ -705,8 +751,11 @@
       <c r="C26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>76</v>
       </c>
@@ -716,8 +765,11 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>77</v>
       </c>
@@ -727,8 +779,11 @@
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>78</v>
       </c>
@@ -739,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>79</v>
       </c>
@@ -750,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>80</v>
       </c>
@@ -760,8 +815,11 @@
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>81</v>
       </c>
@@ -771,8 +829,11 @@
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>82</v>
       </c>
@@ -783,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>83</v>
       </c>
@@ -793,8 +854,11 @@
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>84</v>
       </c>
@@ -804,8 +868,11 @@
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>85</v>
       </c>
@@ -816,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>86</v>
       </c>
@@ -826,8 +893,11 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>87</v>
       </c>
@@ -838,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>88</v>
       </c>
@@ -848,8 +918,11 @@
       <c r="C39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>89</v>
       </c>
@@ -860,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>90</v>
       </c>
@@ -871,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>91</v>
       </c>
@@ -882,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>92</v>
       </c>
@@ -892,8 +965,11 @@
       <c r="C43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>93</v>
       </c>
@@ -904,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>94</v>
       </c>
@@ -915,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>95</v>
       </c>
@@ -926,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>96</v>
       </c>
@@ -937,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>97</v>
       </c>
@@ -947,8 +1023,11 @@
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>98</v>
       </c>
@@ -958,8 +1037,11 @@
       <c r="C49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>99</v>
       </c>
@@ -969,8 +1051,11 @@
       <c r="C50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>100</v>
       </c>
@@ -980,11 +1065,14 @@
       <c r="C51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>201</v>
       </c>
@@ -995,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>202</v>
       </c>
@@ -1006,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>203</v>
       </c>
@@ -1017,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>204</v>
       </c>
@@ -1028,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>205</v>
       </c>
@@ -1039,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>206</v>
       </c>
@@ -1050,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>207</v>
       </c>
@@ -1061,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>208</v>
       </c>
@@ -1072,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>209</v>
       </c>
@@ -1083,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>210</v>
       </c>
@@ -1093,8 +1181,11 @@
       <c r="C62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>211</v>
       </c>
@@ -1104,8 +1195,11 @@
       <c r="C63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>212</v>
       </c>
@@ -1116,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>213</v>
       </c>
@@ -1127,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>214</v>
       </c>
@@ -1137,8 +1231,11 @@
       <c r="C66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>215</v>
       </c>
@@ -1148,8 +1245,11 @@
       <c r="C67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>216</v>
       </c>
@@ -1160,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>217</v>
       </c>
@@ -1171,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>218</v>
       </c>
@@ -1181,8 +1281,11 @@
       <c r="C70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>219</v>
       </c>
@@ -1192,8 +1295,11 @@
       <c r="C71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>220</v>
       </c>
@@ -1203,8 +1309,11 @@
       <c r="C72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>221</v>
       </c>
@@ -1214,8 +1323,11 @@
       <c r="C73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>222</v>
       </c>
@@ -1226,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>223</v>
       </c>
@@ -1236,8 +1348,11 @@
       <c r="C75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>224</v>
       </c>
@@ -1248,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>225</v>
       </c>
@@ -1258,8 +1373,11 @@
       <c r="C77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>226</v>
       </c>
@@ -1270,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>227</v>
       </c>
@@ -1281,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>228</v>
       </c>
@@ -1291,8 +1409,11 @@
       <c r="C80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>229</v>
       </c>
@@ -1302,8 +1423,11 @@
       <c r="C81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>230</v>
       </c>
@@ -1313,8 +1437,11 @@
       <c r="C82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>231</v>
       </c>
@@ -1325,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>232</v>
       </c>
@@ -1335,8 +1462,11 @@
       <c r="C84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>233</v>
       </c>
@@ -1346,8 +1476,11 @@
       <c r="C85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>234</v>
       </c>
@@ -1358,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>235</v>
       </c>
@@ -1367,6 +1500,140 @@
       </c>
       <c r="C87">
         <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>240</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>241</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>242</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>244</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>246</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>250</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
